--- a/DB_Helperland.xlsx
+++ b/DB_Helperland.xlsx
@@ -238,12 +238,6 @@
     <t>CLM_Fav_Flag</t>
   </si>
   <si>
-    <t>TBL_Block_Cust</t>
-  </si>
-  <si>
-    <t>CLM_Cust_Pro_ID</t>
-  </si>
-  <si>
     <t>CLM_Block_Flag</t>
   </si>
   <si>
@@ -251,6 +245,12 @@
   </si>
   <si>
     <t>Table 8</t>
+  </si>
+  <si>
+    <t>CLM_Block_Cust_ID</t>
+  </si>
+  <si>
+    <t>TBL_Block_Customer</t>
   </si>
 </sst>
 </file>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,7 +2049,7 @@
     <row r="50" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="17"/>
       <c r="C50" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>70</v>
@@ -2058,10 +2058,10 @@
       <c r="F50" s="25"/>
       <c r="G50" s="8"/>
       <c r="H50" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I50" s="23" t="s">
         <v>78</v>
-      </c>
-      <c r="I50" s="23" t="s">
-        <v>74</v>
       </c>
       <c r="J50" s="24"/>
       <c r="K50" s="25"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>14</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>21</v>
